--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ง(299).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ง(299).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2803F767-B465-2046-B2A2-A7BC451CDEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2803F767-B465-2046-B2A2-A7BC451CDEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E75A9A5F-BE22-4152-9AD1-CF3B9A261D32}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="2805" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -931,9 +931,6 @@
     <t>โงนเงน</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๗ เรียกว่า งอ งู เป็นอักษรตํ่า ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากงหรือแม่กง เช่น บาง ทอง.</t>
-  </si>
-  <si>
     <t>ก. แสดงอาการอยากได้หรือไม่อยากเสียจนเกินควร.; ว. มีอาการสั่นอย่างคนแก่หรืออย่างกลัวหรืออย่างหนาวมาก.</t>
   </si>
   <si>
@@ -1129,9 +1126,6 @@
     <t>ว. มีร่างกายพิการจนเดินไม่ได้อย่างปรกติ.</t>
   </si>
   <si>
-    <t>คำกร่อนของคำหน้าซึ่งซ้ำกับคำหลังในคำที่มี ง เป็นพยัญชนะต้น มีคำแปลอย่างเดียวกับคำเดิมนั้น เช่น งะงก งะงัน งะโง้ง.</t>
-  </si>
-  <si>
     <t>ว. อาการที่สั่นสะท้าน, อาการที่เดินสั่น ๆ มา.; ว. อาการที่สั่นสะท้าน, อาการที่เดินสั่น ๆ มา.</t>
   </si>
   <si>
@@ -1240,9 +1234,6 @@
     <t>น. งานที่เกี่ยวกับการบริหารงานเอกสาร เริ่มตั้งแต่การจัดทำ การรับ การส่ง การเก็บรักษา การยืม จนถึงการทำลาย.</t>
   </si>
   <si>
-    <t>ทำงานไม่บกพร่องทั้งงานส่วนรวมและส่วนตัว, ใช้เพี้ยนว่า งานหลวงไม่ขาด งานราษฎร์ไม่เสีย ก็มี.</t>
-  </si>
-  <si>
     <t>น. งานที่ทำเพื่อความเพลิดเพลิน.</t>
   </si>
   <si>
@@ -2312,6 +2303,15 @@
   </si>
   <si>
     <t>ดู พะยูน.</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๗ เรียกว่า งอ งู เป็นอักษรตํ่า ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากงหรือแม่กง เช่น บาง ทอง.</t>
+  </si>
+  <si>
+    <t>*ว. คำกร่อนของคำหน้าซึ่งซ้ำกับคำหลังในคำที่มี ง เป็นพยัญชนะต้น มีคำแปลอย่างเดียวกับคำเดิมนั้น เช่น งะงก งะงัน งะโง้ง.</t>
+  </si>
+  <si>
+    <t>*สำ. ทำงานไม่บกพร่องทั้งงานส่วนรวมและส่วนตัว, ใช้เพี้ยนว่า งานหลวงไม่ขาด งานราษฎร์ไม่เสีย ก็มี.</t>
   </si>
 </sst>
 </file>
@@ -2681,13 +2681,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2701,2891 +2701,2891 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D12" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D17" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D18" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>182</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D19" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D21" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D23" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D24" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D27" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D28" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D30" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D39" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D40" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D41" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D42" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D44" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D46" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D47" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D56" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D57" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D58" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D66" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D71" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D72" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D80" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>201</v>
       </c>
       <c r="C81" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D81" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D84" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D85" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>67</v>
       </c>
       <c r="C92" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>68</v>
       </c>
       <c r="C93" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>70</v>
       </c>
       <c r="C95" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D95" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D96" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D97" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>71</v>
       </c>
       <c r="C98" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D98" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D99" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D100" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D101" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>208</v>
       </c>
       <c r="C102" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D102" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>209</v>
       </c>
       <c r="C103" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D104" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>210</v>
       </c>
       <c r="C105" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D105" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>73</v>
       </c>
       <c r="C106" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>74</v>
       </c>
       <c r="C107" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>75</v>
       </c>
       <c r="C108" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>78</v>
       </c>
       <c r="C111" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>79</v>
       </c>
       <c r="C112" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>80</v>
       </c>
       <c r="C113" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>81</v>
       </c>
       <c r="C114" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>82</v>
       </c>
       <c r="C115" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D115" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>211</v>
       </c>
       <c r="C116" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D116" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>212</v>
       </c>
       <c r="C117" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D117" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D118" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>214</v>
       </c>
       <c r="C119" t="s">
-        <v>406</v>
+        <v>763</v>
       </c>
       <c r="D119" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>215</v>
       </c>
       <c r="C120" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D120" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>83</v>
       </c>
       <c r="C121" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>84</v>
       </c>
       <c r="C122" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>85</v>
       </c>
       <c r="C123" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>86</v>
       </c>
       <c r="C124" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>87</v>
       </c>
       <c r="C125" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>88</v>
       </c>
       <c r="C126" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D126" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>216</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D127" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>217</v>
       </c>
       <c r="C128" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D128" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>218</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D129" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>89</v>
       </c>
       <c r="C130" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D130" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>219</v>
       </c>
       <c r="C131" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D131" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>220</v>
       </c>
       <c r="C132" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D132" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>90</v>
       </c>
       <c r="C133" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>91</v>
       </c>
       <c r="C134" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>92</v>
       </c>
       <c r="C135" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D135" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>221</v>
       </c>
       <c r="C136" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D136" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>222</v>
       </c>
       <c r="C137" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D137" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>93</v>
       </c>
       <c r="C138" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>94</v>
       </c>
       <c r="C139" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>95</v>
       </c>
       <c r="C140" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>96</v>
       </c>
       <c r="C141" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>97</v>
       </c>
       <c r="C142" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
       <c r="C144" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>100</v>
       </c>
       <c r="C145" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>101</v>
       </c>
       <c r="C146" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>102</v>
       </c>
       <c r="C147" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>103</v>
       </c>
       <c r="C148" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>104</v>
       </c>
       <c r="C149" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>105</v>
       </c>
       <c r="C150" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>106</v>
       </c>
       <c r="C151" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>107</v>
       </c>
       <c r="C152" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>108</v>
       </c>
       <c r="C153" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>109</v>
       </c>
       <c r="C154" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>110</v>
       </c>
       <c r="C155" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>111</v>
       </c>
       <c r="C156" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>115</v>
       </c>
       <c r="C160" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D160" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>223</v>
       </c>
       <c r="C161" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D161" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>224</v>
       </c>
       <c r="C162" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D162" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D163" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>226</v>
       </c>
       <c r="C164" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D164" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>227</v>
       </c>
       <c r="C165" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D165" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D166" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>229</v>
       </c>
       <c r="C167" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D167" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>230</v>
       </c>
       <c r="C168" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D168" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>231</v>
       </c>
       <c r="C169" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D169" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>116</v>
       </c>
       <c r="C170" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>117</v>
       </c>
       <c r="C171" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>118</v>
       </c>
       <c r="C172" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>119</v>
       </c>
       <c r="C173" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>120</v>
       </c>
       <c r="C174" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>121</v>
       </c>
       <c r="C175" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>122</v>
       </c>
       <c r="C176" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>123</v>
       </c>
       <c r="C177" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D177" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>232</v>
       </c>
       <c r="C178" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D178" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>124</v>
       </c>
       <c r="C179" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>125</v>
       </c>
       <c r="C180" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D180" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>233</v>
       </c>
       <c r="C181" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D181" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>234</v>
       </c>
       <c r="C182" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D182" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>235</v>
       </c>
       <c r="C183" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D183" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>236</v>
       </c>
       <c r="C184" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D184" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>126</v>
       </c>
       <c r="C185" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>127</v>
       </c>
       <c r="C186" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D186" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>237</v>
       </c>
       <c r="C187" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D187" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>128</v>
       </c>
       <c r="C188" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>129</v>
       </c>
       <c r="C189" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>130</v>
       </c>
       <c r="C190" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>131</v>
       </c>
       <c r="C191" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D191" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>238</v>
       </c>
       <c r="C192" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D192" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>239</v>
       </c>
       <c r="C193" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D193" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>240</v>
       </c>
       <c r="C194" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D194" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>241</v>
       </c>
       <c r="C195" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D195" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>242</v>
       </c>
       <c r="C196" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D196" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>243</v>
       </c>
       <c r="C197" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D197" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>244</v>
       </c>
       <c r="C198" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D198" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>245</v>
       </c>
       <c r="C199" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D199" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>246</v>
       </c>
       <c r="C200" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D200" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>247</v>
       </c>
       <c r="C201" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D201" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>248</v>
       </c>
       <c r="C202" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D202" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>249</v>
       </c>
       <c r="C203" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D203" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>250</v>
       </c>
       <c r="C204" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D204" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>251</v>
       </c>
       <c r="C205" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D205" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>252</v>
       </c>
       <c r="C206" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D206" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>253</v>
       </c>
       <c r="C207" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D207" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>254</v>
       </c>
       <c r="C208" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D208" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>255</v>
       </c>
       <c r="C209" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D209" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>256</v>
       </c>
       <c r="C210" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D210" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>257</v>
       </c>
       <c r="C211" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D211" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>258</v>
       </c>
       <c r="C212" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D212" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>259</v>
       </c>
       <c r="C213" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D213" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>260</v>
       </c>
       <c r="C214" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D214" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>261</v>
       </c>
       <c r="C215" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D215" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>262</v>
       </c>
       <c r="C216" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D216" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>263</v>
       </c>
       <c r="C217" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D217" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>264</v>
       </c>
       <c r="C218" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D218" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>265</v>
       </c>
       <c r="C219" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D219" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>266</v>
       </c>
       <c r="C220" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D220" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>267</v>
       </c>
       <c r="C221" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D221" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>268</v>
       </c>
       <c r="C222" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D222" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>269</v>
       </c>
       <c r="C223" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D223" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>270</v>
       </c>
       <c r="C224" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D224" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>271</v>
       </c>
       <c r="C225" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D225" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>272</v>
       </c>
       <c r="C226" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D226" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>273</v>
       </c>
       <c r="C227" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D227" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>274</v>
       </c>
       <c r="C228" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D228" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>275</v>
       </c>
       <c r="C229" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D229" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>276</v>
       </c>
       <c r="C230" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D230" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>277</v>
       </c>
       <c r="C231" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D231" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>278</v>
       </c>
       <c r="C232" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D232" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>279</v>
       </c>
       <c r="C233" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D233" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>280</v>
       </c>
       <c r="C234" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D234" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>281</v>
       </c>
       <c r="C235" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D235" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>132</v>
       </c>
       <c r="C236" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D236" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>282</v>
       </c>
       <c r="C237" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D237" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>133</v>
       </c>
       <c r="C238" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>134</v>
       </c>
       <c r="C239" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>135</v>
       </c>
       <c r="C240" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>136</v>
       </c>
       <c r="C241" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>137</v>
       </c>
       <c r="C242" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D242" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>283</v>
       </c>
       <c r="C243" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D243" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>284</v>
       </c>
       <c r="C244" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D244" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>285</v>
       </c>
       <c r="C245" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D245" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>286</v>
       </c>
       <c r="C246" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D246" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>287</v>
       </c>
       <c r="C247" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D247" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>138</v>
       </c>
       <c r="C248" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>139</v>
       </c>
       <c r="C249" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>140</v>
       </c>
       <c r="C250" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>141</v>
       </c>
       <c r="C251" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>142</v>
       </c>
       <c r="C252" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>143</v>
       </c>
       <c r="C253" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>144</v>
       </c>
       <c r="C254" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D254" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>288</v>
       </c>
       <c r="C255" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D255" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>145</v>
       </c>
       <c r="C256" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D256" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>289</v>
       </c>
       <c r="C257" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D257" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>146</v>
       </c>
       <c r="C258" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>147</v>
       </c>
       <c r="C259" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>148</v>
       </c>
       <c r="C260" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>149</v>
       </c>
       <c r="C261" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D261" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>290</v>
       </c>
       <c r="C262" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D262" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>150</v>
       </c>
       <c r="C263" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>151</v>
       </c>
       <c r="C264" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>152</v>
       </c>
       <c r="C265" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>153</v>
       </c>
       <c r="C266" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D266" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>291</v>
       </c>
       <c r="C267" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D267" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>292</v>
       </c>
       <c r="C268" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D268" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>293</v>
       </c>
       <c r="C269" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D269" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>154</v>
       </c>
       <c r="C270" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>155</v>
       </c>
       <c r="C271" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>156</v>
       </c>
       <c r="C272" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D272" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>294</v>
       </c>
       <c r="C273" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D273" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>157</v>
       </c>
       <c r="C274" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>158</v>
       </c>
       <c r="C275" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>159</v>
       </c>
       <c r="C276" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D276" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>295</v>
       </c>
       <c r="C277" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D277" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>160</v>
       </c>
       <c r="C278" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>161</v>
       </c>
       <c r="C279" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D279" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>296</v>
       </c>
       <c r="C280" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D280" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>162</v>
       </c>
       <c r="C281" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>163</v>
       </c>
       <c r="C282" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D282" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D283" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>164</v>
       </c>
       <c r="C284" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>165</v>
       </c>
       <c r="C285" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>166</v>
       </c>
       <c r="C286" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>167</v>
       </c>
       <c r="C287" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D287" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>298</v>
       </c>
       <c r="C288" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D288" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>299</v>
       </c>
       <c r="C289" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D289" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>300</v>
       </c>
       <c r="C290" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D290" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>301</v>
       </c>
       <c r="C291" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D291" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>168</v>
       </c>
       <c r="C292" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>169</v>
       </c>
       <c r="C293" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>170</v>
       </c>
       <c r="C294" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>171</v>
       </c>
       <c r="C295" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>172</v>
       </c>
       <c r="C296" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>173</v>
       </c>
       <c r="C297" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>174</v>
       </c>
       <c r="C298" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D298" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>302</v>
       </c>
       <c r="C299" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D299" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>175</v>
       </c>
       <c r="C300" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
